--- a/data/xlsx/dispos/G001.xlsx
+++ b/data/xlsx/dispos/G001.xlsx
@@ -2267,7 +2267,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2309,7 +2309,7 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_弱</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S13" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_最弱</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U13" t="n">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -2429,7 +2429,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2471,7 +2471,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_微弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_弱</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S14" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_弱</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U14" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -2591,7 +2591,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -2633,7 +2633,7 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_強</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_微強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -2649,7 +2649,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_強</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U15" t="n">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -2753,7 +2753,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -2795,7 +2795,7 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_強</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_強</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U16" t="n">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -2915,7 +2915,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2957,7 +2957,7 @@
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_最強</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_最強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_最強</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U17" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -3077,7 +3077,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3119,7 +3119,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_弱</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S18" t="n">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_弱</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U18" t="n">
@@ -3200,7 +3200,7 @@
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -3239,7 +3239,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3281,7 +3281,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S19" t="n">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_弱</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U19" t="n">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -3401,7 +3401,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3443,7 +3443,7 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_微弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_微強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S20" t="n">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U20" t="n">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -3563,7 +3563,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3605,7 +3605,7 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_微強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S21" t="n">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_強</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U21" t="n">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -3725,7 +3725,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3767,7 +3767,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_強</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_最強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S22" t="n">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_強</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U22" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -3858,7 +3858,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -3887,7 +3887,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3929,7 +3929,7 @@
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_最弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_最弱</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S23" t="n">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_最弱</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U23" t="n">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -4049,7 +4049,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4091,7 +4091,7 @@
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_最弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_最弱</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S24" t="n">
@@ -4107,7 +4107,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_最弱</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U24" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -4211,7 +4211,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4253,7 +4253,7 @@
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_最弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -4261,7 +4261,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_弱</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S25" t="n">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常_G001_弱</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U25" t="n">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
@@ -4344,7 +4344,7 @@
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -4373,7 +4373,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4415,7 +4415,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_最弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_微強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S26" t="n">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U26" t="n">
@@ -4496,7 +4496,7 @@
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -4535,7 +4535,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_竜化_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4577,7 +4577,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>IID_チキ_つめ_通常_G001_微弱</t>
+          <t>永恒之爪</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>IID_チキ_しっぽ_通常_G001_微強</t>
+          <t>龙尾猛击</t>
         </is>
       </c>
       <c r="S27" t="n">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>IID_チキ_ブレス_通常</t>
+          <t>雾之吐息</t>
         </is>
       </c>
       <c r="U27" t="n">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -4815,7 +4815,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PID_G001_チキ</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4957,7 +4957,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PID_G001_チキ</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -5099,7 +5099,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PID_G001_チキ</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -5241,7 +5241,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PID_G001_チキ</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -5383,7 +5383,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -5525,7 +5525,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -5667,7 +5667,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -5809,7 +5809,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -5951,7 +5951,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -6093,7 +6093,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -6235,7 +6235,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -6377,7 +6377,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PID_G001_チキ_特効無効</t>
+          <t>琪姬</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -6519,7 +6519,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -6665,7 +6665,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -6811,7 +6811,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -6965,7 +6965,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -7119,7 +7119,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -7273,7 +7273,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -7431,7 +7431,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -7577,7 +7577,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -7723,7 +7723,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -7877,7 +7877,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -8031,7 +8031,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -8185,7 +8185,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -8343,7 +8343,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -8385,7 +8385,7 @@
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -8489,7 +8489,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -8531,7 +8531,7 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q54" t="n">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S54" t="n">
@@ -8639,7 +8639,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -8681,7 +8681,7 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S55" t="n">
@@ -8789,7 +8789,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -8831,7 +8831,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q56" t="n">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S56" t="n">
@@ -8943,7 +8943,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -9085,7 +9085,7 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -9227,7 +9227,7 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -9373,7 +9373,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -9519,7 +9519,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -9669,7 +9669,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -9819,7 +9819,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -9973,7 +9973,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -10123,7 +10123,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -10273,7 +10273,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -10427,7 +10427,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -10569,7 +10569,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -10711,7 +10711,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -10853,7 +10853,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -10995,7 +10995,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -11137,7 +11137,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -11283,7 +11283,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -11425,7 +11425,7 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -11567,7 +11567,7 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -11713,7 +11713,7 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -11859,7 +11859,7 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -12009,7 +12009,7 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -12163,7 +12163,7 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -12305,7 +12305,7 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -12447,7 +12447,7 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -12589,7 +12589,7 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -12731,7 +12731,7 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -12873,7 +12873,7 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -13015,7 +13015,7 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -13161,7 +13161,7 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -13303,7 +13303,7 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -13449,7 +13449,7 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -13599,7 +13599,7 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -13749,7 +13749,7 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -13899,7 +13899,7 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -14053,7 +14053,7 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -14095,7 +14095,7 @@
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q92" t="n">
@@ -14195,7 +14195,7 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -14237,7 +14237,7 @@
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q93" t="n">
@@ -14245,7 +14245,7 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S93" t="n">
@@ -14341,7 +14341,7 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -14383,7 +14383,7 @@
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q94" t="n">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S94" t="n">
@@ -14487,7 +14487,7 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -14529,7 +14529,7 @@
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q95" t="n">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S95" t="n">
@@ -14637,7 +14637,7 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -14779,7 +14779,7 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -14921,7 +14921,7 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -15071,7 +15071,7 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -15221,7 +15221,7 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -15371,7 +15371,7 @@
       <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -15525,7 +15525,7 @@
       <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -15671,7 +15671,7 @@
       <c r="A103" t="inlineStr"/>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -15817,7 +15817,7 @@
       <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -15963,7 +15963,7 @@
       <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -16113,7 +16113,7 @@
       <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -16255,7 +16255,7 @@
       <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -16397,7 +16397,7 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -16547,7 +16547,7 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -16697,7 +16697,7 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -16847,7 +16847,7 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -17001,7 +17001,7 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -17143,7 +17143,7 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -17285,7 +17285,7 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -17435,7 +17435,7 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -17589,7 +17589,7 @@
       <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -17743,7 +17743,7 @@
       <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -17901,7 +17901,7 @@
       <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -17947,7 +17947,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S118" t="n">
@@ -18043,7 +18043,7 @@
       <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -18085,7 +18085,7 @@
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="Q119" t="n">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S119" t="n">
@@ -18189,7 +18189,7 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -18231,7 +18231,7 @@
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="Q120" t="n">
@@ -18239,7 +18239,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S120" t="n">
@@ -18335,7 +18335,7 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -18377,7 +18377,7 @@
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="Q121" t="n">
@@ -18385,7 +18385,7 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S121" t="n">
@@ -18485,7 +18485,7 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -18627,7 +18627,7 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -18769,7 +18769,7 @@
       <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -18919,7 +18919,7 @@
       <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -19073,7 +19073,7 @@
       <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -19227,7 +19227,7 @@
       <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -19385,7 +19385,7 @@
       <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S128" t="n">
@@ -19527,7 +19527,7 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -19573,7 +19573,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S129" t="n">
@@ -19669,7 +19669,7 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S130" t="n">
@@ -19811,7 +19811,7 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -19857,7 +19857,7 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S131" t="n">
@@ -19953,7 +19953,7 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -19999,7 +19999,7 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S132" t="n">
@@ -20095,7 +20095,7 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -20137,7 +20137,7 @@
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="Q133" t="n">
@@ -20145,7 +20145,7 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S133" t="n">
@@ -20241,7 +20241,7 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -20283,7 +20283,7 @@
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="Q134" t="n">
@@ -20291,7 +20291,7 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S134" t="n">
@@ -20391,7 +20391,7 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -20437,7 +20437,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S135" t="n">
@@ -20533,7 +20533,7 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -20579,7 +20579,7 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S136" t="n">
@@ -20675,7 +20675,7 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -20721,7 +20721,7 @@
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S137" t="n">
@@ -20817,7 +20817,7 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -20863,7 +20863,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S138" t="n">
@@ -20959,7 +20959,7 @@
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -21005,7 +21005,7 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S139" t="n">
@@ -21101,7 +21101,7 @@
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -21143,7 +21143,7 @@
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="Q140" t="n">
@@ -21151,7 +21151,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S140" t="n">
@@ -21247,7 +21247,7 @@
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -21289,7 +21289,7 @@
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="Q141" t="n">
@@ -21297,7 +21297,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="S141" t="n">
@@ -21397,7 +21397,7 @@
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -21539,7 +21539,7 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -21681,7 +21681,7 @@
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -21827,7 +21827,7 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -21973,7 +21973,7 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -22119,7 +22119,7 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -22269,7 +22269,7 @@
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -22423,7 +22423,7 @@
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -22565,7 +22565,7 @@
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -22707,7 +22707,7 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -22853,7 +22853,7 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -22999,7 +22999,7 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -23149,7 +23149,7 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -23299,7 +23299,7 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -23449,7 +23449,7 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -23599,7 +23599,7 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -23753,7 +23753,7 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -23895,7 +23895,7 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -24037,7 +24037,7 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -24183,7 +24183,7 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -24329,7 +24329,7 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -24479,7 +24479,7 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -24629,7 +24629,7 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -24779,7 +24779,7 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -24929,7 +24929,7 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -25083,7 +25083,7 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -25225,7 +25225,7 @@
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -25367,7 +25367,7 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -25517,7 +25517,7 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -25667,7 +25667,7 @@
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -25817,7 +25817,7 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -25971,7 +25971,7 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -26117,7 +26117,7 @@
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -26263,7 +26263,7 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -26413,7 +26413,7 @@
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -26563,7 +26563,7 @@
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -26713,7 +26713,7 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -26863,7 +26863,7 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -27017,7 +27017,7 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -27167,7 +27167,7 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -27317,7 +27317,7 @@
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -27471,7 +27471,7 @@
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -27621,7 +27621,7 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -27771,7 +27771,7 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -27929,7 +27929,7 @@
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -28087,7 +28087,7 @@
       <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -28245,7 +28245,7 @@
       <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -28407,7 +28407,7 @@
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -28553,7 +28553,7 @@
       <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -28699,7 +28699,7 @@
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -28849,7 +28849,7 @@
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -28999,7 +28999,7 @@
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -29149,7 +29149,7 @@
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -29303,7 +29303,7 @@
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -29461,7 +29461,7 @@
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -29607,7 +29607,7 @@
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -29753,7 +29753,7 @@
       <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -29899,7 +29899,7 @@
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -30045,7 +30045,7 @@
       <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -30191,7 +30191,7 @@
       <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -30337,7 +30337,7 @@
       <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -30487,7 +30487,7 @@
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -30633,7 +30633,7 @@
       <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -30783,7 +30783,7 @@
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -30937,7 +30937,7 @@
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -31091,7 +31091,7 @@
       <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -31245,7 +31245,7 @@
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -31403,7 +31403,7 @@
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -31545,7 +31545,7 @@
       <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -31687,7 +31687,7 @@
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -31833,7 +31833,7 @@
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -31979,7 +31979,7 @@
       <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -32125,7 +32125,7 @@
       <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -32275,7 +32275,7 @@
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -32429,7 +32429,7 @@
       <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -32571,7 +32571,7 @@
       <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -32713,7 +32713,7 @@
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -32859,7 +32859,7 @@
       <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -33009,7 +33009,7 @@
       <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -33159,7 +33159,7 @@
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -33313,7 +33313,7 @@
       <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -33455,7 +33455,7 @@
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -33597,7 +33597,7 @@
       <c r="A224" t="inlineStr"/>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -33747,7 +33747,7 @@
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -33897,7 +33897,7 @@
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -34047,7 +34047,7 @@
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -34201,7 +34201,7 @@
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -34243,7 +34243,7 @@
       <c r="O228" t="inlineStr"/>
       <c r="P228" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q228" t="n">
@@ -34343,7 +34343,7 @@
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -34385,7 +34385,7 @@
       <c r="O229" t="inlineStr"/>
       <c r="P229" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q229" t="n">
@@ -34393,7 +34393,7 @@
       </c>
       <c r="R229" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S229" t="n">
@@ -34489,7 +34489,7 @@
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -34531,7 +34531,7 @@
       <c r="O230" t="inlineStr"/>
       <c r="P230" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q230" t="n">
@@ -34539,7 +34539,7 @@
       </c>
       <c r="R230" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S230" t="n">
@@ -34635,7 +34635,7 @@
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -34677,7 +34677,7 @@
       <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q231" t="n">
@@ -34685,7 +34685,7 @@
       </c>
       <c r="R231" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S231" t="n">
@@ -34785,7 +34785,7 @@
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -34827,7 +34827,7 @@
       <c r="O232" t="inlineStr"/>
       <c r="P232" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q232" t="n">
@@ -34927,7 +34927,7 @@
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -34969,7 +34969,7 @@
       <c r="O233" t="inlineStr"/>
       <c r="P233" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q233" t="n">
@@ -34977,7 +34977,7 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S233" t="n">
@@ -35073,7 +35073,7 @@
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -35115,7 +35115,7 @@
       <c r="O234" t="inlineStr"/>
       <c r="P234" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q234" t="n">
@@ -35123,7 +35123,7 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S234" t="n">
@@ -35219,7 +35219,7 @@
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -35261,7 +35261,7 @@
       <c r="O235" t="inlineStr"/>
       <c r="P235" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q235" t="n">
@@ -35269,7 +35269,7 @@
       </c>
       <c r="R235" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S235" t="n">
@@ -35365,7 +35365,7 @@
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -35407,7 +35407,7 @@
       <c r="O236" t="inlineStr"/>
       <c r="P236" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q236" t="n">
@@ -35415,7 +35415,7 @@
       </c>
       <c r="R236" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S236" t="n">
@@ -35515,7 +35515,7 @@
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -35657,7 +35657,7 @@
       <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -35799,7 +35799,7 @@
       <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -35945,7 +35945,7 @@
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -36095,7 +36095,7 @@
       <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -36245,7 +36245,7 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -36399,7 +36399,7 @@
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -36545,7 +36545,7 @@
       <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -36691,7 +36691,7 @@
       <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -36841,7 +36841,7 @@
       <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -36995,7 +36995,7 @@
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -37149,7 +37149,7 @@
       <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -37307,7 +37307,7 @@
       <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -37453,7 +37453,7 @@
       <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -37599,7 +37599,7 @@
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -37749,7 +37749,7 @@
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -37899,7 +37899,7 @@
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -38049,7 +38049,7 @@
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -38203,7 +38203,7 @@
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -38361,7 +38361,7 @@
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -38403,7 +38403,7 @@
       <c r="O256" t="inlineStr"/>
       <c r="P256" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q256" t="n">
@@ -38507,7 +38507,7 @@
       <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -38549,7 +38549,7 @@
       <c r="O257" t="inlineStr"/>
       <c r="P257" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q257" t="n">
@@ -38557,7 +38557,7 @@
       </c>
       <c r="R257" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S257" t="n">
@@ -38657,7 +38657,7 @@
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -38699,7 +38699,7 @@
       <c r="O258" t="inlineStr"/>
       <c r="P258" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q258" t="n">
@@ -38707,7 +38707,7 @@
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S258" t="n">
@@ -38807,7 +38807,7 @@
       <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -38849,7 +38849,7 @@
       <c r="O259" t="inlineStr"/>
       <c r="P259" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q259" t="n">
@@ -38857,7 +38857,7 @@
       </c>
       <c r="R259" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S259" t="n">
@@ -38961,7 +38961,7 @@
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -39111,7 +39111,7 @@
       <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -39261,7 +39261,7 @@
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -39415,7 +39415,7 @@
       <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -39569,7 +39569,7 @@
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -39723,7 +39723,7 @@
       <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -39877,7 +39877,7 @@
       <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -40035,7 +40035,7 @@
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -40193,7 +40193,7 @@
       <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -40355,7 +40355,7 @@
       <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -40501,7 +40501,7 @@
       <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -40647,7 +40647,7 @@
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -40797,7 +40797,7 @@
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -40947,7 +40947,7 @@
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -41097,7 +41097,7 @@
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -41251,7 +41251,7 @@
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -41393,7 +41393,7 @@
       <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -41535,7 +41535,7 @@
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -41685,7 +41685,7 @@
       <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -41835,7 +41835,7 @@
       <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -41985,7 +41985,7 @@
       <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アーチャー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -42139,7 +42139,7 @@
       <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -42293,7 +42293,7 @@
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -42447,7 +42447,7 @@
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -42605,7 +42605,7 @@
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -42763,7 +42763,7 @@
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -42921,7 +42921,7 @@
       <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_モンク</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -43083,7 +43083,7 @@
       <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -43229,7 +43229,7 @@
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -43375,7 +43375,7 @@
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -43525,7 +43525,7 @@
       <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -43675,7 +43675,7 @@
       <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -43825,7 +43825,7 @@
       <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -43979,7 +43979,7 @@
       <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -44125,7 +44125,7 @@
       <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -44271,7 +44271,7 @@
       <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -44421,7 +44421,7 @@
       <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -44571,7 +44571,7 @@
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -44721,7 +44721,7 @@
       <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -44875,7 +44875,7 @@
       <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -45021,7 +45021,7 @@
       <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -45167,7 +45167,7 @@
       <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -45317,7 +45317,7 @@
       <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -45467,7 +45467,7 @@
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -45617,7 +45617,7 @@
       <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -45771,7 +45771,7 @@
       <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -45813,7 +45813,7 @@
       <c r="O305" t="inlineStr"/>
       <c r="P305" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q305" t="n">
@@ -45913,7 +45913,7 @@
       <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -45955,7 +45955,7 @@
       <c r="O306" t="inlineStr"/>
       <c r="P306" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q306" t="n">
@@ -45963,7 +45963,7 @@
       </c>
       <c r="R306" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S306" t="n">
@@ -46059,7 +46059,7 @@
       <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -46101,7 +46101,7 @@
       <c r="O307" t="inlineStr"/>
       <c r="P307" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q307" t="n">
@@ -46109,7 +46109,7 @@
       </c>
       <c r="R307" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S307" t="n">
@@ -46205,7 +46205,7 @@
       <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -46247,7 +46247,7 @@
       <c r="O308" t="inlineStr"/>
       <c r="P308" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q308" t="n">
@@ -46255,7 +46255,7 @@
       </c>
       <c r="R308" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S308" t="n">
@@ -46473,7 +46473,7 @@
       <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -46515,7 +46515,7 @@
       <c r="O310" t="inlineStr"/>
       <c r="P310" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q310" t="n">
@@ -46615,7 +46615,7 @@
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -46657,7 +46657,7 @@
       <c r="O311" t="inlineStr"/>
       <c r="P311" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q311" t="n">
@@ -46665,7 +46665,7 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S311" t="n">
@@ -46761,7 +46761,7 @@
       <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -46803,7 +46803,7 @@
       <c r="O312" t="inlineStr"/>
       <c r="P312" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q312" t="n">
@@ -46811,7 +46811,7 @@
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S312" t="n">
@@ -46907,7 +46907,7 @@
       <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -46949,7 +46949,7 @@
       <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q313" t="n">
@@ -46957,7 +46957,7 @@
       </c>
       <c r="R313" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S313" t="n">
@@ -47057,7 +47057,7 @@
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -47099,7 +47099,7 @@
       <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q314" t="n">
@@ -47107,7 +47107,7 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S314" t="n">
@@ -47203,7 +47203,7 @@
       <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -47245,7 +47245,7 @@
       <c r="O315" t="inlineStr"/>
       <c r="P315" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q315" t="n">
@@ -47253,7 +47253,7 @@
       </c>
       <c r="R315" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S315" t="n">
@@ -47353,7 +47353,7 @@
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -47495,7 +47495,7 @@
       <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -47637,7 +47637,7 @@
       <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -47783,7 +47783,7 @@
       <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -47929,7 +47929,7 @@
       <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -48075,7 +48075,7 @@
       <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -48225,7 +48225,7 @@
       <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -48379,7 +48379,7 @@
       <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -48521,7 +48521,7 @@
       <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -48663,7 +48663,7 @@
       <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -48809,7 +48809,7 @@
       <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -48955,7 +48955,7 @@
       <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -49101,7 +49101,7 @@
       <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -49251,7 +49251,7 @@
       <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスファイター</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -49523,7 +49523,7 @@
       <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -49565,7 +49565,7 @@
       <c r="O331" t="inlineStr"/>
       <c r="P331" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q331" t="n">
@@ -49665,7 +49665,7 @@
       <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -49707,7 +49707,7 @@
       <c r="O332" t="inlineStr"/>
       <c r="P332" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q332" t="n">
@@ -49807,7 +49807,7 @@
       <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -49849,7 +49849,7 @@
       <c r="O333" t="inlineStr"/>
       <c r="P333" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q333" t="n">
@@ -49857,7 +49857,7 @@
       </c>
       <c r="R333" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S333" t="n">
@@ -49953,7 +49953,7 @@
       <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -49995,7 +49995,7 @@
       <c r="O334" t="inlineStr"/>
       <c r="P334" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q334" t="n">
@@ -50003,7 +50003,7 @@
       </c>
       <c r="R334" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S334" t="n">
@@ -50099,7 +50099,7 @@
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -50141,7 +50141,7 @@
       <c r="O335" t="inlineStr"/>
       <c r="P335" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q335" t="n">
@@ -50149,7 +50149,7 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S335" t="n">
@@ -50249,7 +50249,7 @@
       <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -50291,7 +50291,7 @@
       <c r="O336" t="inlineStr"/>
       <c r="P336" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q336" t="n">
@@ -50299,7 +50299,7 @@
       </c>
       <c r="R336" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S336" t="n">
@@ -50395,7 +50395,7 @@
       <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -50437,7 +50437,7 @@
       <c r="O337" t="inlineStr"/>
       <c r="P337" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q337" t="n">
@@ -50445,7 +50445,7 @@
       </c>
       <c r="R337" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S337" t="n">
@@ -50545,7 +50545,7 @@
       <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -50691,7 +50691,7 @@
       <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -50837,7 +50837,7 @@
       <c r="A340" t="inlineStr"/>
       <c r="B340" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -50987,7 +50987,7 @@
       <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -51137,7 +51137,7 @@
       <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -51287,7 +51287,7 @@
       <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -51441,7 +51441,7 @@
       <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -51587,7 +51587,7 @@
       <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -51733,7 +51733,7 @@
       <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -51883,7 +51883,7 @@
       <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -52033,7 +52033,7 @@
       <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -52183,7 +52183,7 @@
       <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスアーマー</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -52455,7 +52455,7 @@
       <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -52497,7 +52497,7 @@
       <c r="O351" t="inlineStr"/>
       <c r="P351" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q351" t="n">
@@ -52597,7 +52597,7 @@
       <c r="A352" t="inlineStr"/>
       <c r="B352" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -52639,7 +52639,7 @@
       <c r="O352" t="inlineStr"/>
       <c r="P352" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q352" t="n">
@@ -52647,7 +52647,7 @@
       </c>
       <c r="R352" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S352" t="n">
@@ -52743,7 +52743,7 @@
       <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -52785,7 +52785,7 @@
       <c r="O353" t="inlineStr"/>
       <c r="P353" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q353" t="n">
@@ -52793,7 +52793,7 @@
       </c>
       <c r="R353" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S353" t="n">
@@ -52889,7 +52889,7 @@
       <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -52931,7 +52931,7 @@
       <c r="O354" t="inlineStr"/>
       <c r="P354" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q354" t="n">
@@ -52939,7 +52939,7 @@
       </c>
       <c r="R354" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S354" t="n">
@@ -53039,7 +53039,7 @@
       <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -53081,7 +53081,7 @@
       <c r="O355" t="inlineStr"/>
       <c r="P355" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q355" t="n">
@@ -53089,7 +53089,7 @@
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S355" t="n">
@@ -53185,7 +53185,7 @@
       <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -53227,7 +53227,7 @@
       <c r="O356" t="inlineStr"/>
       <c r="P356" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q356" t="n">
@@ -53235,7 +53235,7 @@
       </c>
       <c r="R356" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S356" t="n">
@@ -53335,7 +53335,7 @@
       <c r="A357" t="inlineStr"/>
       <c r="B357" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -53477,7 +53477,7 @@
       <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -53619,7 +53619,7 @@
       <c r="A359" t="inlineStr"/>
       <c r="B359" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -53765,7 +53765,7 @@
       <c r="A360" t="inlineStr"/>
       <c r="B360" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -53915,7 +53915,7 @@
       <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -54065,7 +54065,7 @@
       <c r="A362" t="inlineStr"/>
       <c r="B362" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -54219,7 +54219,7 @@
       <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -54361,7 +54361,7 @@
       <c r="A364" t="inlineStr"/>
       <c r="B364" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -54503,7 +54503,7 @@
       <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -54649,7 +54649,7 @@
       <c r="A366" t="inlineStr"/>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -54799,7 +54799,7 @@
       <c r="A367" t="inlineStr"/>
       <c r="B367" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -54949,7 +54949,7 @@
       <c r="A368" t="inlineStr"/>
       <c r="B368" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_マージ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -55221,7 +55221,7 @@
       <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -55263,7 +55263,7 @@
       <c r="O370" t="inlineStr"/>
       <c r="P370" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q370" t="n">
@@ -55363,7 +55363,7 @@
       <c r="A371" t="inlineStr"/>
       <c r="B371" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -55405,7 +55405,7 @@
       <c r="O371" t="inlineStr"/>
       <c r="P371" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q371" t="n">
@@ -55505,7 +55505,7 @@
       <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -55547,7 +55547,7 @@
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q372" t="n">
@@ -55555,7 +55555,7 @@
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S372" t="n">
@@ -55651,7 +55651,7 @@
       <c r="A373" t="inlineStr"/>
       <c r="B373" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -55693,7 +55693,7 @@
       <c r="O373" t="inlineStr"/>
       <c r="P373" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q373" t="n">
@@ -55701,7 +55701,7 @@
       </c>
       <c r="R373" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S373" t="n">
@@ -55797,7 +55797,7 @@
       <c r="A374" t="inlineStr"/>
       <c r="B374" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -55839,7 +55839,7 @@
       <c r="O374" t="inlineStr"/>
       <c r="P374" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q374" t="n">
@@ -55847,7 +55847,7 @@
       </c>
       <c r="R374" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S374" t="n">
@@ -55947,7 +55947,7 @@
       <c r="A375" t="inlineStr"/>
       <c r="B375" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -55989,7 +55989,7 @@
       <c r="O375" t="inlineStr"/>
       <c r="P375" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q375" t="n">
@@ -55997,7 +55997,7 @@
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S375" t="n">
@@ -56093,7 +56093,7 @@
       <c r="A376" t="inlineStr"/>
       <c r="B376" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -56135,7 +56135,7 @@
       <c r="O376" t="inlineStr"/>
       <c r="P376" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q376" t="n">
@@ -56143,7 +56143,7 @@
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S376" t="n">
@@ -56243,7 +56243,7 @@
       <c r="A377" t="inlineStr"/>
       <c r="B377" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -56385,7 +56385,7 @@
       <c r="A378" t="inlineStr"/>
       <c r="B378" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -56527,7 +56527,7 @@
       <c r="A379" t="inlineStr"/>
       <c r="B379" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -56669,7 +56669,7 @@
       <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -56811,7 +56811,7 @@
       <c r="A381" t="inlineStr"/>
       <c r="B381" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -56953,7 +56953,7 @@
       <c r="A382" t="inlineStr"/>
       <c r="B382" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -57099,7 +57099,7 @@
       <c r="A383" t="inlineStr"/>
       <c r="B383" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -57241,7 +57241,7 @@
       <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -57383,7 +57383,7 @@
       <c r="A385" t="inlineStr"/>
       <c r="B385" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -57525,7 +57525,7 @@
       <c r="A386" t="inlineStr"/>
       <c r="B386" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -57667,7 +57667,7 @@
       <c r="A387" t="inlineStr"/>
       <c r="B387" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -57809,7 +57809,7 @@
       <c r="A388" t="inlineStr"/>
       <c r="B388" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_シーフ</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -58073,7 +58073,7 @@
       <c r="A390" t="inlineStr"/>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -58115,7 +58115,7 @@
       <c r="O390" t="inlineStr"/>
       <c r="P390" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q390" t="n">
@@ -58215,7 +58215,7 @@
       <c r="A391" t="inlineStr"/>
       <c r="B391" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -58257,7 +58257,7 @@
       <c r="O391" t="inlineStr"/>
       <c r="P391" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q391" t="n">
@@ -58265,7 +58265,7 @@
       </c>
       <c r="R391" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S391" t="n">
@@ -58361,7 +58361,7 @@
       <c r="A392" t="inlineStr"/>
       <c r="B392" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -58403,7 +58403,7 @@
       <c r="O392" t="inlineStr"/>
       <c r="P392" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q392" t="n">
@@ -58411,7 +58411,7 @@
       </c>
       <c r="R392" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S392" t="n">
@@ -58507,7 +58507,7 @@
       <c r="A393" t="inlineStr"/>
       <c r="B393" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -58549,7 +58549,7 @@
       <c r="O393" t="inlineStr"/>
       <c r="P393" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q393" t="n">
@@ -58557,7 +58557,7 @@
       </c>
       <c r="R393" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S393" t="n">
@@ -58657,7 +58657,7 @@
       <c r="A394" t="inlineStr"/>
       <c r="B394" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -58699,7 +58699,7 @@
       <c r="O394" t="inlineStr"/>
       <c r="P394" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q394" t="n">
@@ -58707,7 +58707,7 @@
       </c>
       <c r="R394" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S394" t="n">
@@ -58803,7 +58803,7 @@
       <c r="A395" t="inlineStr"/>
       <c r="B395" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -58845,7 +58845,7 @@
       <c r="O395" t="inlineStr"/>
       <c r="P395" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q395" t="n">
@@ -58853,7 +58853,7 @@
       </c>
       <c r="R395" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S395" t="n">
@@ -58953,7 +58953,7 @@
       <c r="A396" t="inlineStr"/>
       <c r="B396" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -59099,7 +59099,7 @@
       <c r="A397" t="inlineStr"/>
       <c r="B397" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -59245,7 +59245,7 @@
       <c r="A398" t="inlineStr"/>
       <c r="B398" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -59395,7 +59395,7 @@
       <c r="A399" t="inlineStr"/>
       <c r="B399" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -59545,7 +59545,7 @@
       <c r="A400" t="inlineStr"/>
       <c r="B400" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -59695,7 +59695,7 @@
       <c r="A401" t="inlineStr"/>
       <c r="B401" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -59849,7 +59849,7 @@
       <c r="A402" t="inlineStr"/>
       <c r="B402" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -59995,7 +59995,7 @@
       <c r="A403" t="inlineStr"/>
       <c r="B403" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -60141,7 +60141,7 @@
       <c r="A404" t="inlineStr"/>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -60291,7 +60291,7 @@
       <c r="A405" t="inlineStr"/>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -60441,7 +60441,7 @@
       <c r="A406" t="inlineStr"/>
       <c r="B406" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -60591,7 +60591,7 @@
       <c r="A407" t="inlineStr"/>
       <c r="B407" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_アクスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -60863,7 +60863,7 @@
       <c r="A409" t="inlineStr"/>
       <c r="B409" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -60905,7 +60905,7 @@
       <c r="O409" t="inlineStr"/>
       <c r="P409" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q409" t="n">
@@ -61005,7 +61005,7 @@
       <c r="A410" t="inlineStr"/>
       <c r="B410" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -61047,7 +61047,7 @@
       <c r="O410" t="inlineStr"/>
       <c r="P410" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q410" t="n">
@@ -61147,7 +61147,7 @@
       <c r="A411" t="inlineStr"/>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -61189,7 +61189,7 @@
       <c r="O411" t="inlineStr"/>
       <c r="P411" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q411" t="n">
@@ -61197,7 +61197,7 @@
       </c>
       <c r="R411" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S411" t="n">
@@ -61293,7 +61293,7 @@
       <c r="A412" t="inlineStr"/>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -61335,7 +61335,7 @@
       <c r="O412" t="inlineStr"/>
       <c r="P412" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q412" t="n">
@@ -61343,7 +61343,7 @@
       </c>
       <c r="R412" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S412" t="n">
@@ -61439,7 +61439,7 @@
       <c r="A413" t="inlineStr"/>
       <c r="B413" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -61481,7 +61481,7 @@
       <c r="O413" t="inlineStr"/>
       <c r="P413" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q413" t="n">
@@ -61489,7 +61489,7 @@
       </c>
       <c r="R413" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S413" t="n">
@@ -61589,7 +61589,7 @@
       <c r="A414" t="inlineStr"/>
       <c r="B414" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -61631,7 +61631,7 @@
       <c r="O414" t="inlineStr"/>
       <c r="P414" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q414" t="n">
@@ -61639,7 +61639,7 @@
       </c>
       <c r="R414" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S414" t="n">
@@ -61735,7 +61735,7 @@
       <c r="A415" t="inlineStr"/>
       <c r="B415" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -61777,7 +61777,7 @@
       <c r="O415" t="inlineStr"/>
       <c r="P415" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q415" t="n">
@@ -61785,7 +61785,7 @@
       </c>
       <c r="R415" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S415" t="n">
@@ -61885,7 +61885,7 @@
       <c r="A416" t="inlineStr"/>
       <c r="B416" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -62027,7 +62027,7 @@
       <c r="A417" t="inlineStr"/>
       <c r="B417" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -62169,7 +62169,7 @@
       <c r="A418" t="inlineStr"/>
       <c r="B418" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -62319,7 +62319,7 @@
       <c r="A419" t="inlineStr"/>
       <c r="B419" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -62469,7 +62469,7 @@
       <c r="A420" t="inlineStr"/>
       <c r="B420" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -62619,7 +62619,7 @@
       <c r="A421" t="inlineStr"/>
       <c r="B421" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -62773,7 +62773,7 @@
       <c r="A422" t="inlineStr"/>
       <c r="B422" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -62915,7 +62915,7 @@
       <c r="A423" t="inlineStr"/>
       <c r="B423" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -63057,7 +63057,7 @@
       <c r="A424" t="inlineStr"/>
       <c r="B424" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -63207,7 +63207,7 @@
       <c r="A425" t="inlineStr"/>
       <c r="B425" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -63357,7 +63357,7 @@
       <c r="A426" t="inlineStr"/>
       <c r="B426" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -63507,7 +63507,7 @@
       <c r="A427" t="inlineStr"/>
       <c r="B427" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ソードナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -63779,7 +63779,7 @@
       <c r="A429" t="inlineStr"/>
       <c r="B429" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -63821,7 +63821,7 @@
       <c r="O429" t="inlineStr"/>
       <c r="P429" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q429" t="n">
@@ -63921,7 +63921,7 @@
       <c r="A430" t="inlineStr"/>
       <c r="B430" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -63963,7 +63963,7 @@
       <c r="O430" t="inlineStr"/>
       <c r="P430" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q430" t="n">
@@ -63971,7 +63971,7 @@
       </c>
       <c r="R430" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S430" t="n">
@@ -64067,7 +64067,7 @@
       <c r="A431" t="inlineStr"/>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -64109,7 +64109,7 @@
       <c r="O431" t="inlineStr"/>
       <c r="P431" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q431" t="n">
@@ -64117,7 +64117,7 @@
       </c>
       <c r="R431" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S431" t="n">
@@ -64213,7 +64213,7 @@
       <c r="A432" t="inlineStr"/>
       <c r="B432" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -64255,7 +64255,7 @@
       <c r="O432" t="inlineStr"/>
       <c r="P432" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q432" t="n">
@@ -64263,7 +64263,7 @@
       </c>
       <c r="R432" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S432" t="n">
@@ -64363,7 +64363,7 @@
       <c r="A433" t="inlineStr"/>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -64405,7 +64405,7 @@
       <c r="O433" t="inlineStr"/>
       <c r="P433" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q433" t="n">
@@ -64413,7 +64413,7 @@
       </c>
       <c r="R433" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S433" t="n">
@@ -64509,7 +64509,7 @@
       <c r="A434" t="inlineStr"/>
       <c r="B434" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -64551,7 +64551,7 @@
       <c r="O434" t="inlineStr"/>
       <c r="P434" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q434" t="n">
@@ -64559,7 +64559,7 @@
       </c>
       <c r="R434" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S434" t="n">
@@ -64659,7 +64659,7 @@
       <c r="A435" t="inlineStr"/>
       <c r="B435" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -64805,7 +64805,7 @@
       <c r="A436" t="inlineStr"/>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -64951,7 +64951,7 @@
       <c r="A437" t="inlineStr"/>
       <c r="B437" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -65101,7 +65101,7 @@
       <c r="A438" t="inlineStr"/>
       <c r="B438" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -65251,7 +65251,7 @@
       <c r="A439" t="inlineStr"/>
       <c r="B439" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -65401,7 +65401,7 @@
       <c r="A440" t="inlineStr"/>
       <c r="B440" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -65555,7 +65555,7 @@
       <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -65701,7 +65701,7 @@
       <c r="A442" t="inlineStr"/>
       <c r="B442" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -65847,7 +65847,7 @@
       <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -65997,7 +65997,7 @@
       <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -66147,7 +66147,7 @@
       <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -66297,7 +66297,7 @@
       <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>PID_G000_幻影兵_ランスナイト</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -66569,7 +66569,7 @@
       <c r="A448" t="inlineStr"/>
       <c r="B448" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -66611,7 +66611,7 @@
       <c r="O448" t="inlineStr"/>
       <c r="P448" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q448" t="n">
@@ -66711,7 +66711,7 @@
       <c r="A449" t="inlineStr"/>
       <c r="B449" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -66753,7 +66753,7 @@
       <c r="O449" t="inlineStr"/>
       <c r="P449" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q449" t="n">
@@ -66761,7 +66761,7 @@
       </c>
       <c r="R449" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S449" t="n">
@@ -66857,7 +66857,7 @@
       <c r="A450" t="inlineStr"/>
       <c r="B450" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -66899,7 +66899,7 @@
       <c r="O450" t="inlineStr"/>
       <c r="P450" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q450" t="n">
@@ -66907,7 +66907,7 @@
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S450" t="n">
@@ -67003,7 +67003,7 @@
       <c r="A451" t="inlineStr"/>
       <c r="B451" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -67045,7 +67045,7 @@
       <c r="O451" t="inlineStr"/>
       <c r="P451" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q451" t="n">
@@ -67053,7 +67053,7 @@
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S451" t="n">
@@ -67153,7 +67153,7 @@
       <c r="A452" t="inlineStr"/>
       <c r="B452" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -67195,7 +67195,7 @@
       <c r="O452" t="inlineStr"/>
       <c r="P452" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q452" t="n">
@@ -67295,7 +67295,7 @@
       <c r="A453" t="inlineStr"/>
       <c r="B453" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -67337,7 +67337,7 @@
       <c r="O453" t="inlineStr"/>
       <c r="P453" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q453" t="n">
@@ -67345,7 +67345,7 @@
       </c>
       <c r="R453" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S453" t="n">
@@ -67441,7 +67441,7 @@
       <c r="A454" t="inlineStr"/>
       <c r="B454" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -67483,7 +67483,7 @@
       <c r="O454" t="inlineStr"/>
       <c r="P454" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q454" t="n">
@@ -67491,7 +67491,7 @@
       </c>
       <c r="R454" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S454" t="n">
@@ -67587,7 +67587,7 @@
       <c r="A455" t="inlineStr"/>
       <c r="B455" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -67629,7 +67629,7 @@
       <c r="O455" t="inlineStr"/>
       <c r="P455" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q455" t="n">
@@ -67637,7 +67637,7 @@
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S455" t="n">
@@ -67737,7 +67737,7 @@
       <c r="A456" t="inlineStr"/>
       <c r="B456" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -67779,7 +67779,7 @@
       <c r="O456" t="inlineStr"/>
       <c r="P456" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q456" t="n">
@@ -67879,7 +67879,7 @@
       <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -67921,7 +67921,7 @@
       <c r="O457" t="inlineStr"/>
       <c r="P457" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q457" t="n">
@@ -67929,7 +67929,7 @@
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S457" t="n">
@@ -68025,7 +68025,7 @@
       <c r="A458" t="inlineStr"/>
       <c r="B458" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -68067,7 +68067,7 @@
       <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q458" t="n">
@@ -68075,7 +68075,7 @@
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S458" t="n">
@@ -68171,7 +68171,7 @@
       <c r="A459" t="inlineStr"/>
       <c r="B459" t="inlineStr">
         <is>
-          <t>PID_G000_幻影飛竜_弱</t>
+          <t>造物</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -68213,7 +68213,7 @@
       <c r="O459" t="inlineStr"/>
       <c r="P459" t="inlineStr">
         <is>
-          <t>IID_氷のブレス</t>
+          <t>冰之吐息</t>
         </is>
       </c>
       <c r="Q459" t="n">
@@ -68221,7 +68221,7 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>IID_氷塊</t>
+          <t>冰块</t>
         </is>
       </c>
       <c r="S459" t="n">
